--- a/docs/shrcore/shr-core-ProcedureRequest.xlsx
+++ b/docs/shrcore/shr-core-ProcedureRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="482">
   <si>
     <t>Path</t>
   </si>
@@ -495,10 +495,53 @@
     <t>Request(s) replaced by this request</t>
   </si>
   <si>
-    <t>requisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Requisition-extension]]} {[]}
+    <t>ProcedureRequest.extension.id</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Replaces-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest]]}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>groupidentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-GroupIdentifier-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -615,34 +658,7 @@
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
   </si>
   <si>
-    <t>ProcedureRequest.extension.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.valueReference</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
@@ -653,9 +669,6 @@
   </si>
   <si>
     <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>method</t>
@@ -1692,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3881,11 +3894,9 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>152</v>
       </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3906,11 +3917,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3961,13 +3974,13 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
@@ -3982,7 +3995,7 @@
         <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -3993,11 +4006,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>44</v>
       </c>
@@ -4006,7 +4017,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -4018,11 +4029,13 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4073,7 +4086,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4105,20 +4118,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -4130,11 +4141,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4143,7 +4156,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
@@ -4185,13 +4198,13 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
@@ -4206,7 +4219,7 @@
         <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4217,17 +4230,15 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B23" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>53</v>
@@ -4244,9 +4255,11 @@
       <c r="J23" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4297,13 +4310,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4318,7 +4331,7 @@
         <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4332,7 +4345,7 @@
         <v>143</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>44</v>
@@ -4354,11 +4367,11 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4444,7 +4457,7 @@
         <v>143</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>44</v>
@@ -4454,7 +4467,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4466,11 +4479,11 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4556,7 +4569,7 @@
         <v>143</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>44</v>
@@ -4578,11 +4591,11 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4668,7 +4681,7 @@
         <v>143</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>44</v>
@@ -4678,7 +4691,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4690,11 +4703,11 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4780,7 +4793,7 @@
         <v>143</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>44</v>
@@ -4790,7 +4803,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
@@ -4802,11 +4815,11 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4892,7 +4905,7 @@
         <v>143</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
@@ -4914,11 +4927,11 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5004,7 +5017,7 @@
         <v>143</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>44</v>
@@ -5014,7 +5027,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -5026,11 +5039,11 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5116,7 +5129,7 @@
         <v>143</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>44</v>
@@ -5126,7 +5139,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5138,11 +5151,11 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5225,9 +5238,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5236,7 +5251,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
@@ -5248,13 +5263,11 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="L32" t="s" s="2">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5305,13 +5318,13 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5326,7 +5339,7 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5337,9 +5350,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5348,7 +5363,7 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
@@ -5360,13 +5375,11 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="K33" s="2"/>
       <c r="L33" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5417,7 +5430,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5449,15 +5462,17 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>53</v>
@@ -5472,13 +5487,11 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5487,7 +5500,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>44</v>
@@ -5529,13 +5542,13 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
@@ -5550,7 +5563,7 @@
         <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
@@ -5561,15 +5574,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>53</v>
@@ -5584,13 +5599,11 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5641,13 +5654,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5662,7 +5675,7 @@
         <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5673,11 +5686,9 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5698,11 +5709,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L36" t="s" s="2">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5753,13 +5766,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5774,7 +5787,7 @@
         <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -5785,24 +5798,24 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>44</v>
@@ -5811,14 +5824,12 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5867,7 +5878,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5888,7 +5899,7 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5899,7 +5910,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5907,10 +5918,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -5919,27 +5930,25 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -5980,11 +5989,15 @@
       <c r="AD38" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG38" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5992,35 +6005,35 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>218</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -6029,16 +6042,16 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6088,11 +6101,15 @@
       <c r="AD39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6100,13 +6117,13 @@
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6117,18 +6134,20 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6137,16 +6156,14 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6196,11 +6213,15 @@
       <c r="AD40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6208,13 +6229,13 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6225,11 +6246,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6242,21 +6263,23 @@
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6304,11 +6327,15 @@
       <c r="AD41" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6316,13 +6343,13 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6333,18 +6360,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6356,20 +6383,18 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6428,57 +6453,55 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6503,13 +6526,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6538,57 +6561,55 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>260</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6613,13 +6634,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6648,16 +6669,16 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6665,7 +6686,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6676,7 +6697,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6688,22 +6709,20 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6723,13 +6742,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6758,16 +6777,16 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6775,45 +6794,45 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -6858,15 +6877,11 @@
       <c r="AD46" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>279</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6877,10 +6892,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6891,7 +6906,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6899,7 +6914,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>53</v>
@@ -6908,26 +6923,24 @@
         <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6951,13 +6964,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6974,15 +6987,11 @@
       <c r="AD47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6990,24 +6999,24 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7024,22 +7033,22 @@
         <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7065,11 +7074,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7098,24 +7109,24 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>304</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7123,7 +7134,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>53</v>
@@ -7138,20 +7149,22 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7171,13 +7184,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7194,15 +7207,11 @@
       <c r="AD49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>53</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7210,58 +7219,62 @@
         <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
@@ -7306,11 +7319,15 @@
       <c r="AD50" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7318,28 +7335,28 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>323</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7358,16 +7375,20 @@
         <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7391,13 +7412,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7414,11 +7435,15 @@
       <c r="AD51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7426,24 +7451,24 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7451,7 +7476,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>53</v>
@@ -7466,15 +7491,17 @@
         <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7499,13 +7526,11 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7534,32 +7559,32 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>53</v>
@@ -7574,13 +7599,13 @@
         <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7630,11 +7655,15 @@
       <c r="AD53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE53" s="2"/>
+      <c r="AE53" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7642,28 +7671,28 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7682,17 +7711,15 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7749,31 +7776,31 @@
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>358</v>
+        <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7789,16 +7816,16 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>67</v>
+        <v>331</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>68</v>
+        <v>332</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7848,15 +7875,11 @@
       <c r="AD55" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE55" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="AE55" s="2"/>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG55" s="2"/>
       <c r="AH55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7864,35 +7887,35 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -7901,20 +7924,18 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -7939,13 +7960,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -7962,15 +7983,11 @@
       <c r="AD56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
@@ -7984,51 +8001,49 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>70</v>
+        <v>344</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>206</v>
+        <v>349</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8076,15 +8091,11 @@
       <c r="AD57" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE57" t="s" s="2">
-        <v>368</v>
-      </c>
+      <c r="AE57" s="2"/>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8092,32 +8103,32 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>142</v>
+        <v>353</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>53</v>
@@ -8132,15 +8143,17 @@
         <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8197,27 +8210,27 @@
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8237,21 +8250,19 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>377</v>
+        <v>66</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>378</v>
+        <v>67</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>68</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8298,11 +8309,15 @@
       <c r="AD59" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE59" s="2"/>
+      <c r="AE59" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG59" s="2"/>
+      <c r="AG59" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8310,13 +8325,13 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>381</v>
+        <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>382</v>
+        <v>70</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8327,18 +8342,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8347,19 +8362,19 @@
         <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8385,13 +8400,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8408,11 +8423,15 @@
       <c r="AD60" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE60" s="2"/>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG60" s="2"/>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8420,16 +8439,16 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>391</v>
+        <v>70</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8437,39 +8456,39 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>394</v>
+        <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>395</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8518,11 +8537,15 @@
       <c r="AD61" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8530,16 +8553,16 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>399</v>
+        <v>142</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8547,7 +8570,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8555,7 +8578,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>53</v>
@@ -8570,17 +8593,15 @@
         <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8605,13 +8626,13 @@
         <v>44</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>44</v>
@@ -8628,15 +8649,11 @@
       <c r="AD62" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8644,24 +8661,24 @@
         <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8684,18 +8701,18 @@
         <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8742,15 +8759,11 @@
       <c r="AD63" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8758,16 +8771,16 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>407</v>
+        <v>142</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -8775,18 +8788,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>416</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8795,18 +8808,20 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -8831,13 +8846,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -8866,16 +8881,16 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -8883,7 +8898,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8894,7 +8909,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -8906,16 +8921,16 @@
         <v>54</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8976,16 +8991,16 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -8993,18 +9008,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9016,20 +9031,18 @@
         <v>54</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9053,11 +9066,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9074,11 +9089,15 @@
       <c r="AD66" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE66" s="2"/>
+      <c r="AE66" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG66" s="2"/>
+      <c r="AG66" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9086,24 +9105,24 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>438</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9123,18 +9142,20 @@
         <v>44</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>66</v>
+        <v>415</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>67</v>
+        <v>405</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9183,13 +9204,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>69</v>
+        <v>414</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9198,16 +9219,16 @@
         <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>70</v>
+        <v>418</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9215,11 +9236,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>72</v>
+        <v>420</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9238,17 +9259,15 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9285,26 +9304,22 @@
         <v>44</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AE68" s="2"/>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9312,13 +9327,13 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>70</v>
+        <v>425</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -9329,11 +9344,9 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9351,16 +9364,20 @@
         <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="K69" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="L69" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9408,15 +9425,11 @@
       <c r="AD69" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AE69" s="2"/>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9427,10 +9440,10 @@
         <v>44</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
@@ -9441,13 +9454,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9463,17 +9474,23 @@
         <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="K70" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="L70" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9497,13 +9514,11 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9520,15 +9535,11 @@
       <c r="AD70" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AE70" s="2"/>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG70" s="2"/>
       <c r="AH70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9539,25 +9550,23 @@
         <v>44</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>44</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>44</v>
       </c>
@@ -9566,7 +9575,7 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>44</v>
@@ -9578,11 +9587,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="K71" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L71" t="s" s="2">
-        <v>449</v>
+        <v>68</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9633,13 +9644,13 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
@@ -9654,7 +9665,7 @@
         <v>44</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -9665,11 +9676,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9685,23 +9696,21 @@
         <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>451</v>
+        <v>74</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>452</v>
+        <v>75</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
@@ -9737,22 +9746,26 @@
         <v>44</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE72" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG72" s="2"/>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
       </c>
@@ -9763,10 +9776,10 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>455</v>
+        <v>44</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>456</v>
+        <v>70</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
@@ -9777,9 +9790,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>44</v>
       </c>
@@ -9788,7 +9803,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
@@ -9797,23 +9812,17 @@
         <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="K73" s="2"/>
       <c r="L73" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -9860,11 +9869,15 @@
       <c r="AD73" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE73" s="2"/>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG73" s="2"/>
+      <c r="AG73" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
       </c>
@@ -9875,10 +9888,10 @@
         <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>463</v>
+        <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
@@ -9889,9 +9902,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>44</v>
       </c>
@@ -9912,13 +9927,11 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="K74" s="2"/>
       <c r="L74" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9968,11 +9981,15 @@
       <c r="AD74" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE74" s="2"/>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG74" s="2"/>
+      <c r="AG74" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH74" t="s" s="2">
         <v>44</v>
       </c>
@@ -9980,26 +9997,28 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>467</v>
+        <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>468</v>
+        <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>470</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>44</v>
       </c>
@@ -10020,17 +10039,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="K75" s="2"/>
       <c r="L75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10078,11 +10093,15 @@
       <c r="AD75" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE75" s="2"/>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG75" s="2"/>
+      <c r="AG75" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
       </c>
@@ -10090,23 +10109,465 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AK75" t="s" s="2">
+      <c r="K79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN75">
+  <autoFilter ref="A1:AN79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10116,7 +10577,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
